--- a/output/execution_times/h/moje/execution_times_python_small.xlsx
+++ b/output/execution_times/h/moje/execution_times_python_small.xlsx
@@ -1029,7 +1029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,6 +1309,31 @@
         </is>
       </c>
       <c r="E11" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6639509201049805</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-04-15 20:48:17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
@@ -2509,7 +2534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2789,6 +2814,56 @@
         </is>
       </c>
       <c r="E11" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LR - scipy</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4586195945739746</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-04-15 20:34:35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LR - scipy</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4539375305175781</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-04-15 20:38:45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
@@ -2805,7 +2880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3085,6 +3160,31 @@
         </is>
       </c>
       <c r="E11" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LR - statsmodels</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4606781005859375</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-04-15 20:34:02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
@@ -3397,7 +3497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3677,6 +3777,31 @@
         </is>
       </c>
       <c r="E11" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LR - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4908487796783447</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-04-15 20:26:45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
